--- a/docForparse/АККРЕДИТАЦИЯ ВРАЧЕЙ_ot_11_01_2021.xlsx
+++ b/docForparse/АККРЕДИТАЦИЯ ВРАЧЕЙ_ot_11_01_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\academy-0090\projects\btrx\docForparse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FE11DF-CCC2-4FFA-9B11-8524774DB927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF352569-7B03-4697-80AC-7E2E68630D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,17 @@
     <sheet name="Медико-профилактическое дело" sheetId="4" r:id="rId5"/>
     <sheet name="Стоматология" sheetId="3" r:id="rId6"/>
     <sheet name="Лечебное дело, Педиатрия" sheetId="2" r:id="rId7"/>
+    <sheet name="общее" sheetId="8" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">общее!$A$1:$A$106</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="506">
   <si>
     <r>
       <rPr>
@@ -4780,6 +4784,9 @@
   </si>
   <si>
     <t>pp</t>
+  </si>
+  <si>
+    <t>1.    Врач – челюстно-лицевой хирург; 2.    Заведующий (начальник) структурного подразделения (отдела, отделения, лаборатории, кабинета, отряда и другое) медицинской организации – врач – челюстно-лицевой хирург; 3. Врач приемного отделения (в специализированной медицинской организации или при наличии в медицинской организации соответствующего специализированного структурного подразделения)</t>
   </si>
 </sst>
 </file>
@@ -5226,7 +5233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -5381,23 +5388,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -5451,6 +5441,29 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5822,905 +5835,905 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
     </row>
     <row r="15" spans="1:3" ht="15">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="78" t="s">
         <v>493</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
     </row>
     <row r="17" spans="1:3" ht="15">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
     </row>
     <row r="19" spans="1:3" ht="15">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="78"/>
     </row>
     <row r="21" spans="1:3" ht="15">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="78"/>
     </row>
     <row r="23" spans="1:3" ht="15">
-      <c r="A23" s="54" t="s">
+      <c r="A23" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="78"/>
     </row>
     <row r="25" spans="1:3" ht="15">
-      <c r="A25" s="54" t="s">
+      <c r="A25" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="78"/>
     </row>
     <row r="27" spans="1:3" ht="15">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="78"/>
     </row>
     <row r="29" spans="1:3" ht="15">
-      <c r="A29" s="54" t="s">
+      <c r="A29" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="78"/>
     </row>
     <row r="31" spans="1:3" ht="15">
-      <c r="A31" s="54" t="s">
+      <c r="A31" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="78"/>
     </row>
     <row r="33" spans="1:3" ht="15">
-      <c r="A33" s="54" t="s">
+      <c r="A33" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
     </row>
     <row r="35" spans="1:3" ht="15">
-      <c r="A35" s="54" t="s">
+      <c r="A35" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="54"/>
-      <c r="C35" s="54"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="78"/>
     </row>
     <row r="37" spans="1:3" ht="15">
-      <c r="A37" s="54" t="s">
+      <c r="A37" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
+      <c r="B37" s="78"/>
+      <c r="C37" s="78"/>
     </row>
     <row r="39" spans="1:3" ht="15">
-      <c r="A39" s="54" t="s">
+      <c r="A39" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
+      <c r="B39" s="78"/>
+      <c r="C39" s="78"/>
     </row>
     <row r="41" spans="1:3" ht="15">
-      <c r="A41" s="54" t="s">
+      <c r="A41" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="54"/>
-      <c r="C41" s="54"/>
+      <c r="B41" s="78"/>
+      <c r="C41" s="78"/>
     </row>
     <row r="43" spans="1:3" ht="15">
-      <c r="A43" s="54" t="s">
+      <c r="A43" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="54"/>
-      <c r="C43" s="54"/>
+      <c r="B43" s="78"/>
+      <c r="C43" s="78"/>
     </row>
     <row r="45" spans="1:3" ht="15">
-      <c r="A45" s="54" t="s">
+      <c r="A45" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="54"/>
-      <c r="C45" s="54"/>
+      <c r="B45" s="78"/>
+      <c r="C45" s="78"/>
     </row>
     <row r="47" spans="1:3" ht="15">
-      <c r="A47" s="54" t="s">
+      <c r="A47" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="B47" s="54"/>
-      <c r="C47" s="54"/>
+      <c r="B47" s="78"/>
+      <c r="C47" s="78"/>
     </row>
     <row r="49" spans="1:3" ht="15">
-      <c r="A49" s="54" t="s">
+      <c r="A49" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="B49" s="54"/>
-      <c r="C49" s="54"/>
+      <c r="B49" s="78"/>
+      <c r="C49" s="78"/>
     </row>
     <row r="51" spans="1:3" ht="15">
-      <c r="A51" s="54" t="s">
+      <c r="A51" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="B51" s="54"/>
-      <c r="C51" s="54"/>
+      <c r="B51" s="78"/>
+      <c r="C51" s="78"/>
     </row>
     <row r="53" spans="1:3" ht="15">
-      <c r="A53" s="54" t="s">
+      <c r="A53" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="B53" s="54"/>
-      <c r="C53" s="54"/>
+      <c r="B53" s="78"/>
+      <c r="C53" s="78"/>
     </row>
     <row r="55" spans="1:3" ht="15">
-      <c r="A55" s="54" t="s">
+      <c r="A55" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="B55" s="54"/>
-      <c r="C55" s="54"/>
+      <c r="B55" s="78"/>
+      <c r="C55" s="78"/>
     </row>
     <row r="57" spans="1:3" ht="15">
-      <c r="A57" s="54" t="s">
+      <c r="A57" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="B57" s="54"/>
-      <c r="C57" s="54"/>
+      <c r="B57" s="78"/>
+      <c r="C57" s="78"/>
     </row>
     <row r="59" spans="1:3" ht="15">
-      <c r="A59" s="54" t="s">
+      <c r="A59" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="B59" s="54"/>
-      <c r="C59" s="54"/>
+      <c r="B59" s="78"/>
+      <c r="C59" s="78"/>
     </row>
     <row r="61" spans="1:3" ht="15">
-      <c r="A61" s="54" t="s">
+      <c r="A61" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="B61" s="54"/>
-      <c r="C61" s="54"/>
+      <c r="B61" s="78"/>
+      <c r="C61" s="78"/>
     </row>
     <row r="63" spans="1:3" ht="15">
-      <c r="A63" s="54" t="s">
+      <c r="A63" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="B63" s="54"/>
-      <c r="C63" s="54"/>
+      <c r="B63" s="78"/>
+      <c r="C63" s="78"/>
     </row>
     <row r="65" spans="1:3" ht="15">
-      <c r="A65" s="54" t="s">
+      <c r="A65" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="B65" s="54"/>
-      <c r="C65" s="54"/>
+      <c r="B65" s="78"/>
+      <c r="C65" s="78"/>
     </row>
     <row r="67" spans="1:3" ht="15">
-      <c r="A67" s="54" t="s">
+      <c r="A67" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="B67" s="54"/>
-      <c r="C67" s="54"/>
+      <c r="B67" s="78"/>
+      <c r="C67" s="78"/>
     </row>
     <row r="69" spans="1:3" ht="15">
-      <c r="A69" s="54" t="s">
+      <c r="A69" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="B69" s="54"/>
-      <c r="C69" s="54"/>
+      <c r="B69" s="78"/>
+      <c r="C69" s="78"/>
     </row>
     <row r="71" spans="1:3" ht="15">
-      <c r="A71" s="54" t="s">
+      <c r="A71" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="B71" s="54"/>
-      <c r="C71" s="54"/>
+      <c r="B71" s="78"/>
+      <c r="C71" s="78"/>
     </row>
     <row r="73" spans="1:3" ht="15">
-      <c r="A73" s="54" t="s">
+      <c r="A73" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="B73" s="54"/>
-      <c r="C73" s="54"/>
+      <c r="B73" s="78"/>
+      <c r="C73" s="78"/>
     </row>
     <row r="75" spans="1:3" ht="15">
-      <c r="A75" s="54" t="s">
+      <c r="A75" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="B75" s="54"/>
-      <c r="C75" s="54"/>
+      <c r="B75" s="78"/>
+      <c r="C75" s="78"/>
     </row>
     <row r="77" spans="1:3" ht="15">
-      <c r="A77" s="54" t="s">
+      <c r="A77" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="B77" s="54"/>
-      <c r="C77" s="54"/>
+      <c r="B77" s="78"/>
+      <c r="C77" s="78"/>
     </row>
     <row r="79" spans="1:3" ht="15">
-      <c r="A79" s="54" t="s">
+      <c r="A79" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="B79" s="54"/>
-      <c r="C79" s="54"/>
+      <c r="B79" s="78"/>
+      <c r="C79" s="78"/>
     </row>
     <row r="81" spans="1:3" ht="15">
-      <c r="A81" s="54" t="s">
+      <c r="A81" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="B81" s="54"/>
-      <c r="C81" s="54"/>
+      <c r="B81" s="78"/>
+      <c r="C81" s="78"/>
     </row>
     <row r="83" spans="1:3" ht="15">
-      <c r="A83" s="54" t="s">
+      <c r="A83" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="B83" s="54"/>
-      <c r="C83" s="54"/>
+      <c r="B83" s="78"/>
+      <c r="C83" s="78"/>
     </row>
     <row r="85" spans="1:3" ht="15">
-      <c r="A85" s="54" t="s">
+      <c r="A85" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="B85" s="54"/>
-      <c r="C85" s="54"/>
+      <c r="B85" s="78"/>
+      <c r="C85" s="78"/>
     </row>
     <row r="87" spans="1:3" ht="15">
-      <c r="A87" s="54" t="s">
+      <c r="A87" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="B87" s="54"/>
-      <c r="C87" s="54"/>
+      <c r="B87" s="78"/>
+      <c r="C87" s="78"/>
     </row>
     <row r="89" spans="1:3" ht="15">
-      <c r="A89" s="54" t="s">
+      <c r="A89" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="B89" s="54"/>
-      <c r="C89" s="54"/>
+      <c r="B89" s="78"/>
+      <c r="C89" s="78"/>
     </row>
     <row r="91" spans="1:3" ht="15">
-      <c r="A91" s="54" t="s">
+      <c r="A91" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="B91" s="54"/>
-      <c r="C91" s="54"/>
+      <c r="B91" s="78"/>
+      <c r="C91" s="78"/>
     </row>
     <row r="93" spans="1:3" ht="15">
-      <c r="A93" s="54" t="s">
+      <c r="A93" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="B93" s="54"/>
-      <c r="C93" s="54"/>
+      <c r="B93" s="78"/>
+      <c r="C93" s="78"/>
     </row>
     <row r="95" spans="1:3" ht="15">
-      <c r="A95" s="54" t="s">
+      <c r="A95" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="B95" s="54"/>
-      <c r="C95" s="54"/>
+      <c r="B95" s="78"/>
+      <c r="C95" s="78"/>
     </row>
     <row r="97" spans="1:3" ht="15">
-      <c r="A97" s="54" t="s">
+      <c r="A97" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="B97" s="54"/>
-      <c r="C97" s="54"/>
+      <c r="B97" s="78"/>
+      <c r="C97" s="78"/>
     </row>
     <row r="99" spans="1:3" ht="15">
-      <c r="A99" s="54" t="s">
+      <c r="A99" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="B99" s="54"/>
-      <c r="C99" s="54"/>
+      <c r="B99" s="78"/>
+      <c r="C99" s="78"/>
     </row>
     <row r="101" spans="1:3" ht="15">
-      <c r="A101" s="54" t="s">
+      <c r="A101" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="B101" s="54"/>
-      <c r="C101" s="54"/>
+      <c r="B101" s="78"/>
+      <c r="C101" s="78"/>
     </row>
     <row r="103" spans="1:3" ht="15">
-      <c r="A103" s="54" t="s">
+      <c r="A103" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="B103" s="54"/>
-      <c r="C103" s="54"/>
+      <c r="B103" s="78"/>
+      <c r="C103" s="78"/>
     </row>
     <row r="105" spans="1:3" ht="15">
-      <c r="A105" s="54" t="s">
+      <c r="A105" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="B105" s="54"/>
-      <c r="C105" s="54"/>
+      <c r="B105" s="78"/>
+      <c r="C105" s="78"/>
     </row>
     <row r="107" spans="1:3" ht="15">
-      <c r="A107" s="54" t="s">
+      <c r="A107" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="B107" s="54"/>
-      <c r="C107" s="54"/>
+      <c r="B107" s="78"/>
+      <c r="C107" s="78"/>
     </row>
     <row r="109" spans="1:3" ht="15">
-      <c r="A109" s="54" t="s">
+      <c r="A109" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="B109" s="54"/>
-      <c r="C109" s="54"/>
+      <c r="B109" s="78"/>
+      <c r="C109" s="78"/>
     </row>
     <row r="111" spans="1:3" ht="15">
-      <c r="A111" s="54" t="s">
+      <c r="A111" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="B111" s="54"/>
-      <c r="C111" s="54"/>
+      <c r="B111" s="78"/>
+      <c r="C111" s="78"/>
     </row>
     <row r="113" spans="1:3" ht="15">
-      <c r="A113" s="54" t="s">
+      <c r="A113" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="B113" s="54"/>
-      <c r="C113" s="54"/>
+      <c r="B113" s="78"/>
+      <c r="C113" s="78"/>
     </row>
     <row r="115" spans="1:3" ht="15">
-      <c r="A115" s="54" t="s">
+      <c r="A115" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="B115" s="54"/>
-      <c r="C115" s="54"/>
+      <c r="B115" s="78"/>
+      <c r="C115" s="78"/>
     </row>
     <row r="117" spans="1:3" ht="15">
-      <c r="A117" s="54" t="s">
+      <c r="A117" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="B117" s="54"/>
-      <c r="C117" s="54"/>
+      <c r="B117" s="78"/>
+      <c r="C117" s="78"/>
     </row>
     <row r="119" spans="1:3" ht="15">
-      <c r="A119" s="54" t="s">
+      <c r="A119" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="B119" s="54"/>
-      <c r="C119" s="54"/>
+      <c r="B119" s="78"/>
+      <c r="C119" s="78"/>
     </row>
     <row r="121" spans="1:3" ht="15">
-      <c r="A121" s="54" t="s">
+      <c r="A121" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="B121" s="54"/>
-      <c r="C121" s="54"/>
+      <c r="B121" s="78"/>
+      <c r="C121" s="78"/>
     </row>
     <row r="123" spans="1:3" ht="15">
-      <c r="A123" s="54" t="s">
+      <c r="A123" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="B123" s="54"/>
-      <c r="C123" s="54"/>
+      <c r="B123" s="78"/>
+      <c r="C123" s="78"/>
     </row>
     <row r="125" spans="1:3" ht="15">
-      <c r="A125" s="54" t="s">
+      <c r="A125" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="B125" s="54"/>
-      <c r="C125" s="54"/>
+      <c r="B125" s="78"/>
+      <c r="C125" s="78"/>
     </row>
     <row r="127" spans="1:3" ht="15">
-      <c r="A127" s="54" t="s">
+      <c r="A127" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="B127" s="54"/>
-      <c r="C127" s="54"/>
+      <c r="B127" s="78"/>
+      <c r="C127" s="78"/>
     </row>
     <row r="129" spans="1:3" ht="15">
-      <c r="A129" s="54" t="s">
+      <c r="A129" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="B129" s="54"/>
-      <c r="C129" s="54"/>
+      <c r="B129" s="78"/>
+      <c r="C129" s="78"/>
     </row>
     <row r="131" spans="1:3" ht="15">
-      <c r="A131" s="54" t="s">
+      <c r="A131" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="B131" s="54"/>
-      <c r="C131" s="54"/>
+      <c r="B131" s="78"/>
+      <c r="C131" s="78"/>
     </row>
     <row r="133" spans="1:3" ht="15">
-      <c r="A133" s="54" t="s">
+      <c r="A133" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="B133" s="54"/>
-      <c r="C133" s="54"/>
+      <c r="B133" s="78"/>
+      <c r="C133" s="78"/>
     </row>
     <row r="135" spans="1:3" ht="15">
-      <c r="A135" s="54" t="s">
+      <c r="A135" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="B135" s="54"/>
-      <c r="C135" s="54"/>
+      <c r="B135" s="78"/>
+      <c r="C135" s="78"/>
     </row>
     <row r="137" spans="1:3" ht="15">
-      <c r="A137" s="54" t="s">
+      <c r="A137" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="B137" s="54"/>
-      <c r="C137" s="54"/>
+      <c r="B137" s="78"/>
+      <c r="C137" s="78"/>
     </row>
     <row r="139" spans="1:3" ht="15">
-      <c r="A139" s="54" t="s">
+      <c r="A139" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="B139" s="54"/>
-      <c r="C139" s="54"/>
+      <c r="B139" s="78"/>
+      <c r="C139" s="78"/>
     </row>
     <row r="141" spans="1:3" ht="15">
-      <c r="A141" s="54" t="s">
+      <c r="A141" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="B141" s="54"/>
-      <c r="C141" s="54"/>
+      <c r="B141" s="78"/>
+      <c r="C141" s="78"/>
     </row>
     <row r="143" spans="1:3" ht="15">
-      <c r="A143" s="54" t="s">
+      <c r="A143" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="B143" s="54"/>
-      <c r="C143" s="54"/>
+      <c r="B143" s="78"/>
+      <c r="C143" s="78"/>
     </row>
     <row r="145" spans="1:3" ht="15">
-      <c r="A145" s="54" t="s">
+      <c r="A145" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="B145" s="54"/>
-      <c r="C145" s="54"/>
+      <c r="B145" s="78"/>
+      <c r="C145" s="78"/>
     </row>
     <row r="147" spans="1:3" ht="15">
-      <c r="A147" s="54" t="s">
+      <c r="A147" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="B147" s="54"/>
-      <c r="C147" s="54"/>
+      <c r="B147" s="78"/>
+      <c r="C147" s="78"/>
     </row>
     <row r="149" spans="1:3" ht="15">
-      <c r="A149" s="54" t="s">
+      <c r="A149" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="B149" s="54"/>
-      <c r="C149" s="54"/>
+      <c r="B149" s="78"/>
+      <c r="C149" s="78"/>
     </row>
     <row r="151" spans="1:3" ht="15">
-      <c r="A151" s="54" t="s">
+      <c r="A151" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="B151" s="54"/>
-      <c r="C151" s="54"/>
+      <c r="B151" s="78"/>
+      <c r="C151" s="78"/>
     </row>
     <row r="153" spans="1:3" ht="15">
-      <c r="A153" s="54" t="s">
+      <c r="A153" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="B153" s="54"/>
-      <c r="C153" s="54"/>
+      <c r="B153" s="78"/>
+      <c r="C153" s="78"/>
     </row>
     <row r="155" spans="1:3" ht="15">
-      <c r="A155" s="54" t="s">
+      <c r="A155" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="B155" s="54"/>
-      <c r="C155" s="54"/>
+      <c r="B155" s="78"/>
+      <c r="C155" s="78"/>
     </row>
     <row r="157" spans="1:3" ht="15">
-      <c r="A157" s="54" t="s">
+      <c r="A157" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="B157" s="54"/>
-      <c r="C157" s="54"/>
+      <c r="B157" s="78"/>
+      <c r="C157" s="78"/>
     </row>
     <row r="159" spans="1:3" ht="15">
-      <c r="A159" s="54" t="s">
+      <c r="A159" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="B159" s="54"/>
-      <c r="C159" s="54"/>
+      <c r="B159" s="78"/>
+      <c r="C159" s="78"/>
     </row>
     <row r="161" spans="1:3" ht="15">
-      <c r="A161" s="54" t="s">
+      <c r="A161" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="B161" s="54"/>
-      <c r="C161" s="54"/>
+      <c r="B161" s="78"/>
+      <c r="C161" s="78"/>
     </row>
     <row r="163" spans="1:3" ht="15">
-      <c r="A163" s="54" t="s">
+      <c r="A163" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="B163" s="54"/>
-      <c r="C163" s="54"/>
+      <c r="B163" s="78"/>
+      <c r="C163" s="78"/>
     </row>
     <row r="165" spans="1:3" ht="15.75">
-      <c r="A165" s="55" t="s">
+      <c r="A165" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="B165" s="55"/>
-      <c r="C165" s="55"/>
+      <c r="B165" s="77"/>
+      <c r="C165" s="77"/>
     </row>
     <row r="167" spans="1:3" ht="15">
-      <c r="A167" s="54" t="s">
+      <c r="A167" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="B167" s="54"/>
-      <c r="C167" s="54"/>
+      <c r="B167" s="78"/>
+      <c r="C167" s="78"/>
     </row>
     <row r="169" spans="1:3" ht="15">
-      <c r="A169" s="54" t="s">
+      <c r="A169" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="B169" s="54"/>
-      <c r="C169" s="54"/>
+      <c r="B169" s="78"/>
+      <c r="C169" s="78"/>
     </row>
     <row r="171" spans="1:3" ht="15">
-      <c r="A171" s="54" t="s">
+      <c r="A171" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="B171" s="54"/>
-      <c r="C171" s="54"/>
+      <c r="B171" s="78"/>
+      <c r="C171" s="78"/>
     </row>
     <row r="173" spans="1:3" ht="15">
-      <c r="A173" s="54" t="s">
+      <c r="A173" s="78" t="s">
         <v>81</v>
       </c>
-      <c r="B173" s="54"/>
-      <c r="C173" s="54"/>
+      <c r="B173" s="78"/>
+      <c r="C173" s="78"/>
     </row>
     <row r="175" spans="1:3" ht="15">
-      <c r="A175" s="54" t="s">
+      <c r="A175" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="B175" s="54"/>
-      <c r="C175" s="54"/>
+      <c r="B175" s="78"/>
+      <c r="C175" s="78"/>
     </row>
     <row r="177" spans="1:3" ht="15">
-      <c r="A177" s="54" t="s">
+      <c r="A177" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="B177" s="54"/>
-      <c r="C177" s="54"/>
+      <c r="B177" s="78"/>
+      <c r="C177" s="78"/>
     </row>
     <row r="179" spans="1:3" ht="15">
-      <c r="A179" s="54" t="s">
+      <c r="A179" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="B179" s="54"/>
-      <c r="C179" s="54"/>
+      <c r="B179" s="78"/>
+      <c r="C179" s="78"/>
     </row>
     <row r="181" spans="1:3" ht="15">
-      <c r="A181" s="54" t="s">
+      <c r="A181" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="B181" s="54"/>
-      <c r="C181" s="54"/>
+      <c r="B181" s="78"/>
+      <c r="C181" s="78"/>
     </row>
     <row r="183" spans="1:3" ht="15">
-      <c r="A183" s="54" t="s">
+      <c r="A183" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="B183" s="54"/>
-      <c r="C183" s="54"/>
+      <c r="B183" s="78"/>
+      <c r="C183" s="78"/>
     </row>
     <row r="185" spans="1:3" ht="15">
-      <c r="A185" s="54" t="s">
+      <c r="A185" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="B185" s="54"/>
-      <c r="C185" s="54"/>
+      <c r="B185" s="78"/>
+      <c r="C185" s="78"/>
     </row>
     <row r="187" spans="1:3" ht="15">
-      <c r="A187" s="54" t="s">
+      <c r="A187" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="B187" s="54"/>
-      <c r="C187" s="54"/>
+      <c r="B187" s="78"/>
+      <c r="C187" s="78"/>
     </row>
     <row r="189" spans="1:3" ht="15.75">
-      <c r="A189" s="55" t="s">
+      <c r="A189" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="B189" s="55"/>
-      <c r="C189" s="55"/>
+      <c r="B189" s="77"/>
+      <c r="C189" s="77"/>
     </row>
     <row r="191" spans="1:3" ht="15">
-      <c r="A191" s="54" t="s">
+      <c r="A191" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="B191" s="54"/>
-      <c r="C191" s="54"/>
+      <c r="B191" s="78"/>
+      <c r="C191" s="78"/>
     </row>
     <row r="193" spans="1:3" ht="15">
-      <c r="A193" s="54" t="s">
+      <c r="A193" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="B193" s="54"/>
-      <c r="C193" s="54"/>
+      <c r="B193" s="78"/>
+      <c r="C193" s="78"/>
     </row>
     <row r="195" spans="1:3" ht="15">
-      <c r="A195" s="54" t="s">
+      <c r="A195" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="B195" s="54"/>
-      <c r="C195" s="54"/>
+      <c r="B195" s="78"/>
+      <c r="C195" s="78"/>
     </row>
     <row r="197" spans="1:3" ht="15">
-      <c r="A197" s="54" t="s">
+      <c r="A197" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="B197" s="54"/>
-      <c r="C197" s="54"/>
+      <c r="B197" s="78"/>
+      <c r="C197" s="78"/>
     </row>
     <row r="199" spans="1:3" ht="15">
-      <c r="A199" s="54" t="s">
+      <c r="A199" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="B199" s="54"/>
-      <c r="C199" s="54"/>
+      <c r="B199" s="78"/>
+      <c r="C199" s="78"/>
     </row>
     <row r="201" spans="1:3" ht="15">
-      <c r="A201" s="54" t="s">
+      <c r="A201" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="B201" s="54"/>
-      <c r="C201" s="54"/>
+      <c r="B201" s="78"/>
+      <c r="C201" s="78"/>
     </row>
     <row r="203" spans="1:3" ht="15">
-      <c r="A203" s="54" t="s">
+      <c r="A203" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="B203" s="54"/>
-      <c r="C203" s="54"/>
+      <c r="B203" s="78"/>
+      <c r="C203" s="78"/>
     </row>
     <row r="205" spans="1:3" ht="15">
-      <c r="A205" s="54" t="s">
+      <c r="A205" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="B205" s="54"/>
-      <c r="C205" s="54"/>
+      <c r="B205" s="78"/>
+      <c r="C205" s="78"/>
     </row>
     <row r="207" spans="1:3" ht="15">
-      <c r="A207" s="54" t="s">
+      <c r="A207" s="78" t="s">
         <v>98</v>
       </c>
-      <c r="B207" s="54"/>
-      <c r="C207" s="54"/>
+      <c r="B207" s="78"/>
+      <c r="C207" s="78"/>
     </row>
     <row r="209" spans="1:3" ht="15">
-      <c r="A209" s="54" t="s">
+      <c r="A209" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="B209" s="54"/>
-      <c r="C209" s="54"/>
+      <c r="B209" s="78"/>
+      <c r="C209" s="78"/>
     </row>
     <row r="211" spans="1:3" ht="15">
-      <c r="A211" s="54" t="s">
+      <c r="A211" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="B211" s="54"/>
-      <c r="C211" s="54"/>
+      <c r="B211" s="78"/>
+      <c r="C211" s="78"/>
     </row>
     <row r="213" spans="1:3" ht="15">
-      <c r="A213" s="54" t="s">
+      <c r="A213" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="B213" s="54"/>
-      <c r="C213" s="54"/>
+      <c r="B213" s="78"/>
+      <c r="C213" s="78"/>
     </row>
     <row r="215" spans="1:3" ht="15">
-      <c r="A215" s="54" t="s">
+      <c r="A215" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="B215" s="54"/>
-      <c r="C215" s="54"/>
+      <c r="B215" s="78"/>
+      <c r="C215" s="78"/>
     </row>
     <row r="217" spans="1:3" ht="15">
-      <c r="A217" s="54" t="s">
+      <c r="A217" s="78" t="s">
         <v>103</v>
       </c>
-      <c r="B217" s="54"/>
-      <c r="C217" s="54"/>
+      <c r="B217" s="78"/>
+      <c r="C217" s="78"/>
     </row>
     <row r="219" spans="1:3" ht="15">
-      <c r="A219" s="54" t="s">
+      <c r="A219" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="B219" s="54"/>
-      <c r="C219" s="54"/>
+      <c r="B219" s="78"/>
+      <c r="C219" s="78"/>
     </row>
     <row r="221" spans="1:3" ht="15">
-      <c r="A221" s="54" t="s">
+      <c r="A221" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="B221" s="54"/>
-      <c r="C221" s="54"/>
+      <c r="B221" s="78"/>
+      <c r="C221" s="78"/>
     </row>
     <row r="223" spans="1:3" ht="15">
-      <c r="A223" s="54" t="s">
+      <c r="A223" s="78" t="s">
         <v>106</v>
       </c>
-      <c r="B223" s="54"/>
-      <c r="C223" s="54"/>
+      <c r="B223" s="78"/>
+      <c r="C223" s="78"/>
     </row>
     <row r="225" spans="1:3" ht="15">
-      <c r="A225" s="54" t="s">
+      <c r="A225" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="B225" s="54"/>
-      <c r="C225" s="54"/>
+      <c r="B225" s="78"/>
+      <c r="C225" s="78"/>
     </row>
     <row r="227" spans="1:3" ht="15.75">
-      <c r="A227" s="55" t="s">
+      <c r="A227" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="B227" s="55"/>
-      <c r="C227" s="55"/>
+      <c r="B227" s="77"/>
+      <c r="C227" s="77"/>
     </row>
     <row r="229" spans="1:3" ht="15">
-      <c r="A229" s="54" t="s">
+      <c r="A229" s="78" t="s">
         <v>109</v>
       </c>
-      <c r="B229" s="54"/>
-      <c r="C229" s="54"/>
+      <c r="B229" s="78"/>
+      <c r="C229" s="78"/>
     </row>
     <row r="231" spans="1:3" ht="15">
-      <c r="A231" s="54" t="s">
+      <c r="A231" s="78" t="s">
         <v>110</v>
       </c>
-      <c r="B231" s="54"/>
-      <c r="C231" s="54"/>
+      <c r="B231" s="78"/>
+      <c r="C231" s="78"/>
     </row>
     <row r="233" spans="1:3" ht="15">
-      <c r="A233" s="54" t="s">
+      <c r="A233" s="78" t="s">
         <v>111</v>
       </c>
-      <c r="B233" s="54"/>
-      <c r="C233" s="54"/>
+      <c r="B233" s="78"/>
+      <c r="C233" s="78"/>
     </row>
     <row r="235" spans="1:3" ht="15">
-      <c r="A235" s="54" t="s">
+      <c r="A235" s="78" t="s">
         <v>112</v>
       </c>
-      <c r="B235" s="54"/>
-      <c r="C235" s="54"/>
+      <c r="B235" s="78"/>
+      <c r="C235" s="78"/>
     </row>
     <row r="237" spans="1:3" ht="15">
-      <c r="A237" s="54" t="s">
+      <c r="A237" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="B237" s="54"/>
-      <c r="C237" s="54"/>
+      <c r="B237" s="78"/>
+      <c r="C237" s="78"/>
     </row>
     <row r="239" spans="1:3" ht="15">
-      <c r="A239" s="54" t="s">
+      <c r="A239" s="78" t="s">
         <v>114</v>
       </c>
-      <c r="B239" s="54"/>
-      <c r="C239" s="54"/>
+      <c r="B239" s="78"/>
+      <c r="C239" s="78"/>
     </row>
     <row r="241" spans="1:3" ht="15">
-      <c r="A241" s="54" t="s">
+      <c r="A241" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="B241" s="54"/>
-      <c r="C241" s="54"/>
+      <c r="B241" s="78"/>
+      <c r="C241" s="78"/>
     </row>
     <row r="243" spans="1:3" ht="15.75">
-      <c r="A243" s="55" t="s">
+      <c r="A243" s="77" t="s">
         <v>116</v>
       </c>
-      <c r="B243" s="55"/>
-      <c r="C243" s="55"/>
+      <c r="B243" s="77"/>
+      <c r="C243" s="77"/>
     </row>
     <row r="245" spans="1:3" ht="15">
-      <c r="A245" s="54" t="s">
+      <c r="A245" s="78" t="s">
         <v>117</v>
       </c>
-      <c r="B245" s="54"/>
-      <c r="C245" s="54"/>
+      <c r="B245" s="78"/>
+      <c r="C245" s="78"/>
     </row>
     <row r="247" spans="1:3" ht="15">
-      <c r="A247" s="54" t="s">
+      <c r="A247" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="B247" s="54"/>
-      <c r="C247" s="54"/>
+      <c r="B247" s="78"/>
+      <c r="C247" s="78"/>
     </row>
     <row r="249" spans="1:3" ht="15">
-      <c r="A249" s="54" t="s">
+      <c r="A249" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="B249" s="54"/>
-      <c r="C249" s="54"/>
+      <c r="B249" s="78"/>
+      <c r="C249" s="78"/>
     </row>
     <row r="251" spans="1:3" ht="15">
-      <c r="A251" s="54" t="s">
+      <c r="A251" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="B251" s="54"/>
-      <c r="C251" s="54"/>
+      <c r="B251" s="78"/>
+      <c r="C251" s="78"/>
     </row>
     <row r="253" spans="1:3" ht="15">
-      <c r="A253" s="54" t="s">
+      <c r="A253" s="78" t="s">
         <v>121</v>
       </c>
-      <c r="B253" s="54"/>
-      <c r="C253" s="54"/>
+      <c r="B253" s="78"/>
+      <c r="C253" s="78"/>
     </row>
     <row r="255" spans="1:3" ht="15">
-      <c r="A255" s="54" t="s">
+      <c r="A255" s="78" t="s">
         <v>122</v>
       </c>
-      <c r="B255" s="54"/>
-      <c r="C255" s="54"/>
+      <c r="B255" s="78"/>
+      <c r="C255" s="78"/>
     </row>
     <row r="257" spans="1:3" ht="15">
-      <c r="A257" s="54" t="s">
+      <c r="A257" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="B257" s="54"/>
-      <c r="C257" s="54"/>
+      <c r="B257" s="78"/>
+      <c r="C257" s="78"/>
     </row>
     <row r="259" spans="1:3" ht="15">
-      <c r="A259" s="54" t="s">
+      <c r="A259" s="78" t="s">
         <v>124</v>
       </c>
-      <c r="B259" s="54"/>
-      <c r="C259" s="54"/>
+      <c r="B259" s="78"/>
+      <c r="C259" s="78"/>
     </row>
     <row r="261" spans="1:3" ht="15.75">
-      <c r="A261" s="55" t="s">
+      <c r="A261" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="B261" s="55"/>
-      <c r="C261" s="55"/>
+      <c r="B261" s="77"/>
+      <c r="C261" s="77"/>
     </row>
     <row r="263" spans="1:3" ht="15">
-      <c r="A263" s="54" t="s">
+      <c r="A263" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="B263" s="54"/>
-      <c r="C263" s="54"/>
+      <c r="B263" s="78"/>
+      <c r="C263" s="78"/>
     </row>
     <row r="265" spans="1:3" ht="15">
-      <c r="A265" s="54" t="s">
+      <c r="A265" s="78" t="s">
         <v>127</v>
       </c>
-      <c r="B265" s="54"/>
-      <c r="C265" s="54"/>
+      <c r="B265" s="78"/>
+      <c r="C265" s="78"/>
     </row>
     <row r="267" spans="1:3" ht="15">
-      <c r="A267" s="54" t="s">
+      <c r="A267" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="B267" s="54"/>
-      <c r="C267" s="54"/>
+      <c r="B267" s="78"/>
+      <c r="C267" s="78"/>
     </row>
     <row r="268" spans="1:3">
-      <c r="A268" s="57"/>
-      <c r="B268" s="57"/>
-      <c r="C268" s="57"/>
+      <c r="A268" s="80"/>
+      <c r="B268" s="80"/>
+      <c r="C268" s="80"/>
     </row>
     <row r="269" spans="1:3" ht="21.75">
       <c r="A269" s="6" t="s">
@@ -6728,9 +6741,9 @@
       </c>
     </row>
     <row r="270" spans="1:3">
-      <c r="A270" s="56"/>
-      <c r="B270" s="56"/>
-      <c r="C270" s="56"/>
+      <c r="A270" s="79"/>
+      <c r="B270" s="79"/>
+      <c r="C270" s="79"/>
     </row>
     <row r="271" spans="1:3" ht="25.5">
       <c r="A271" s="41" t="s">
@@ -7570,21 +7583,21 @@
       </c>
     </row>
     <row r="347" spans="1:3">
-      <c r="A347" s="58"/>
-      <c r="B347" s="58"/>
-      <c r="C347" s="58"/>
+      <c r="A347" s="75"/>
+      <c r="B347" s="75"/>
+      <c r="C347" s="75"/>
     </row>
     <row r="348" spans="1:3" ht="21.75">
-      <c r="A348" s="61" t="s">
+      <c r="A348" s="73" t="s">
         <v>333</v>
       </c>
-      <c r="B348" s="61"/>
-      <c r="C348" s="61"/>
+      <c r="B348" s="73"/>
+      <c r="C348" s="73"/>
     </row>
     <row r="349" spans="1:3" ht="13.5" thickBot="1">
-      <c r="A349" s="59"/>
-      <c r="B349" s="59"/>
-      <c r="C349" s="59"/>
+      <c r="A349" s="74"/>
+      <c r="B349" s="74"/>
+      <c r="C349" s="74"/>
     </row>
     <row r="350" spans="1:3" ht="26.25" thickBot="1">
       <c r="A350" s="13" t="s">
@@ -7726,21 +7739,21 @@
       <c r="C362" s="27"/>
     </row>
     <row r="363" spans="1:3">
-      <c r="A363" s="58"/>
-      <c r="B363" s="58"/>
-      <c r="C363" s="58"/>
+      <c r="A363" s="75"/>
+      <c r="B363" s="75"/>
+      <c r="C363" s="75"/>
     </row>
     <row r="364" spans="1:3" ht="21.75">
-      <c r="A364" s="61" t="s">
+      <c r="A364" s="73" t="s">
         <v>499</v>
       </c>
-      <c r="B364" s="61"/>
-      <c r="C364" s="61"/>
+      <c r="B364" s="73"/>
+      <c r="C364" s="73"/>
     </row>
     <row r="365" spans="1:3" ht="13.5" thickBot="1">
-      <c r="A365" s="59"/>
-      <c r="B365" s="59"/>
-      <c r="C365" s="59"/>
+      <c r="A365" s="74"/>
+      <c r="B365" s="74"/>
+      <c r="C365" s="74"/>
     </row>
     <row r="366" spans="1:3" ht="25.5">
       <c r="A366" s="48" t="s">
@@ -7950,21 +7963,21 @@
       </c>
     </row>
     <row r="385" spans="1:3">
-      <c r="A385" s="58"/>
-      <c r="B385" s="58"/>
-      <c r="C385" s="58"/>
+      <c r="A385" s="75"/>
+      <c r="B385" s="75"/>
+      <c r="C385" s="75"/>
     </row>
     <row r="386" spans="1:3" ht="21.75">
-      <c r="A386" s="61" t="s">
+      <c r="A386" s="73" t="s">
         <v>500</v>
       </c>
-      <c r="B386" s="61"/>
-      <c r="C386" s="61"/>
+      <c r="B386" s="73"/>
+      <c r="C386" s="73"/>
     </row>
     <row r="387" spans="1:3" ht="13.5" thickBot="1">
-      <c r="A387" s="59"/>
-      <c r="B387" s="59"/>
-      <c r="C387" s="59"/>
+      <c r="A387" s="74"/>
+      <c r="B387" s="74"/>
+      <c r="C387" s="74"/>
     </row>
     <row r="388" spans="1:3" ht="26.25" thickBot="1">
       <c r="A388" s="13" t="s">
@@ -8053,21 +8066,21 @@
       </c>
     </row>
     <row r="396" spans="1:3">
-      <c r="A396" s="58"/>
-      <c r="B396" s="58"/>
-      <c r="C396" s="58"/>
+      <c r="A396" s="75"/>
+      <c r="B396" s="75"/>
+      <c r="C396" s="75"/>
     </row>
     <row r="397" spans="1:3" ht="21.75">
-      <c r="A397" s="61" t="s">
+      <c r="A397" s="73" t="s">
         <v>489</v>
       </c>
-      <c r="B397" s="61"/>
-      <c r="C397" s="61"/>
+      <c r="B397" s="73"/>
+      <c r="C397" s="73"/>
     </row>
     <row r="398" spans="1:3" ht="13.5" thickBot="1">
-      <c r="A398" s="59"/>
-      <c r="B398" s="59"/>
-      <c r="C398" s="59"/>
+      <c r="A398" s="74"/>
+      <c r="B398" s="74"/>
+      <c r="C398" s="74"/>
     </row>
     <row r="399" spans="1:3" ht="26.25" thickBot="1">
       <c r="A399" s="15" t="s">
@@ -8169,21 +8182,21 @@
       </c>
     </row>
     <row r="408" spans="1:3">
-      <c r="A408" s="60"/>
-      <c r="B408" s="60"/>
-      <c r="C408" s="60"/>
+      <c r="A408" s="76"/>
+      <c r="B408" s="76"/>
+      <c r="C408" s="76"/>
     </row>
     <row r="409" spans="1:3" ht="21.75">
-      <c r="A409" s="61" t="s">
+      <c r="A409" s="73" t="s">
         <v>501</v>
       </c>
-      <c r="B409" s="61"/>
-      <c r="C409" s="61"/>
+      <c r="B409" s="73"/>
+      <c r="C409" s="73"/>
     </row>
     <row r="410" spans="1:3" ht="13.5" thickBot="1">
-      <c r="A410" s="59"/>
-      <c r="B410" s="59"/>
-      <c r="C410" s="59"/>
+      <c r="A410" s="74"/>
+      <c r="B410" s="74"/>
+      <c r="C410" s="74"/>
     </row>
     <row r="411" spans="1:3" ht="26.25" thickBot="1">
       <c r="A411" s="13" t="s">
@@ -8230,18 +8243,18 @@
       </c>
     </row>
     <row r="415" spans="1:3" ht="46.5" customHeight="1">
-      <c r="A415" s="62" t="s">
+      <c r="A415" s="72" t="s">
         <v>488</v>
       </c>
-      <c r="B415" s="62"/>
-      <c r="C415" s="62"/>
+      <c r="B415" s="72"/>
+      <c r="C415" s="72"/>
     </row>
     <row r="416" spans="1:3" ht="46.5" customHeight="1">
-      <c r="A416" s="62" t="s">
+      <c r="A416" s="72" t="s">
         <v>487</v>
       </c>
-      <c r="B416" s="62"/>
-      <c r="C416" s="62"/>
+      <c r="B416" s="72"/>
+      <c r="C416" s="72"/>
     </row>
     <row r="419" spans="1:1" ht="14.25">
       <c r="A419" s="17"/>
@@ -8254,6 +8267,141 @@
     </row>
   </sheetData>
   <mergeCells count="147">
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="A111:C111"/>
+    <mergeCell ref="A109:C109"/>
+    <mergeCell ref="A107:C107"/>
+    <mergeCell ref="A105:C105"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="A121:C121"/>
+    <mergeCell ref="A119:C119"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="A115:C115"/>
+    <mergeCell ref="A113:C113"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="A127:C127"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="A123:C123"/>
+    <mergeCell ref="A141:C141"/>
+    <mergeCell ref="A139:C139"/>
+    <mergeCell ref="A137:C137"/>
+    <mergeCell ref="A135:C135"/>
+    <mergeCell ref="A133:C133"/>
+    <mergeCell ref="A151:C151"/>
+    <mergeCell ref="A149:C149"/>
+    <mergeCell ref="A147:C147"/>
+    <mergeCell ref="A145:C145"/>
+    <mergeCell ref="A143:C143"/>
+    <mergeCell ref="A161:C161"/>
+    <mergeCell ref="A159:C159"/>
+    <mergeCell ref="A157:C157"/>
+    <mergeCell ref="A155:C155"/>
+    <mergeCell ref="A153:C153"/>
+    <mergeCell ref="A171:C171"/>
+    <mergeCell ref="A169:C169"/>
+    <mergeCell ref="A167:C167"/>
+    <mergeCell ref="A165:C165"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="A181:C181"/>
+    <mergeCell ref="A179:C179"/>
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A175:C175"/>
+    <mergeCell ref="A173:C173"/>
+    <mergeCell ref="A191:C191"/>
+    <mergeCell ref="A189:C189"/>
+    <mergeCell ref="A187:C187"/>
+    <mergeCell ref="A185:C185"/>
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="A199:C199"/>
+    <mergeCell ref="A197:C197"/>
+    <mergeCell ref="A195:C195"/>
+    <mergeCell ref="A193:C193"/>
+    <mergeCell ref="A211:C211"/>
+    <mergeCell ref="A209:C209"/>
+    <mergeCell ref="A207:C207"/>
+    <mergeCell ref="A205:C205"/>
+    <mergeCell ref="A203:C203"/>
+    <mergeCell ref="A217:C217"/>
+    <mergeCell ref="A215:C215"/>
+    <mergeCell ref="A213:C213"/>
+    <mergeCell ref="A231:C231"/>
+    <mergeCell ref="A229:C229"/>
+    <mergeCell ref="A227:C227"/>
+    <mergeCell ref="A225:C225"/>
+    <mergeCell ref="A223:C223"/>
+    <mergeCell ref="A201:C201"/>
+    <mergeCell ref="A235:C235"/>
+    <mergeCell ref="A233:C233"/>
+    <mergeCell ref="A251:C251"/>
+    <mergeCell ref="A249:C249"/>
+    <mergeCell ref="A247:C247"/>
+    <mergeCell ref="A245:C245"/>
+    <mergeCell ref="A243:C243"/>
+    <mergeCell ref="A221:C221"/>
+    <mergeCell ref="A219:C219"/>
+    <mergeCell ref="A253:C253"/>
+    <mergeCell ref="A270:C270"/>
+    <mergeCell ref="A268:C268"/>
+    <mergeCell ref="A267:C267"/>
+    <mergeCell ref="A265:C265"/>
+    <mergeCell ref="A263:C263"/>
+    <mergeCell ref="A241:C241"/>
+    <mergeCell ref="A239:C239"/>
+    <mergeCell ref="A237:C237"/>
+    <mergeCell ref="A348:C348"/>
+    <mergeCell ref="A347:C347"/>
+    <mergeCell ref="A349:C349"/>
+    <mergeCell ref="A363:C363"/>
+    <mergeCell ref="A365:C365"/>
+    <mergeCell ref="A261:C261"/>
+    <mergeCell ref="A259:C259"/>
+    <mergeCell ref="A257:C257"/>
+    <mergeCell ref="A255:C255"/>
     <mergeCell ref="A415:C415"/>
     <mergeCell ref="A409:C409"/>
     <mergeCell ref="A416:C416"/>
@@ -8266,141 +8414,6 @@
     <mergeCell ref="A396:C396"/>
     <mergeCell ref="A398:C398"/>
     <mergeCell ref="A408:C408"/>
-    <mergeCell ref="A348:C348"/>
-    <mergeCell ref="A347:C347"/>
-    <mergeCell ref="A349:C349"/>
-    <mergeCell ref="A363:C363"/>
-    <mergeCell ref="A365:C365"/>
-    <mergeCell ref="A261:C261"/>
-    <mergeCell ref="A259:C259"/>
-    <mergeCell ref="A257:C257"/>
-    <mergeCell ref="A255:C255"/>
-    <mergeCell ref="A253:C253"/>
-    <mergeCell ref="A270:C270"/>
-    <mergeCell ref="A268:C268"/>
-    <mergeCell ref="A267:C267"/>
-    <mergeCell ref="A265:C265"/>
-    <mergeCell ref="A263:C263"/>
-    <mergeCell ref="A241:C241"/>
-    <mergeCell ref="A239:C239"/>
-    <mergeCell ref="A237:C237"/>
-    <mergeCell ref="A235:C235"/>
-    <mergeCell ref="A233:C233"/>
-    <mergeCell ref="A251:C251"/>
-    <mergeCell ref="A249:C249"/>
-    <mergeCell ref="A247:C247"/>
-    <mergeCell ref="A245:C245"/>
-    <mergeCell ref="A243:C243"/>
-    <mergeCell ref="A221:C221"/>
-    <mergeCell ref="A219:C219"/>
-    <mergeCell ref="A217:C217"/>
-    <mergeCell ref="A215:C215"/>
-    <mergeCell ref="A213:C213"/>
-    <mergeCell ref="A231:C231"/>
-    <mergeCell ref="A229:C229"/>
-    <mergeCell ref="A227:C227"/>
-    <mergeCell ref="A225:C225"/>
-    <mergeCell ref="A223:C223"/>
-    <mergeCell ref="A201:C201"/>
-    <mergeCell ref="A199:C199"/>
-    <mergeCell ref="A197:C197"/>
-    <mergeCell ref="A195:C195"/>
-    <mergeCell ref="A193:C193"/>
-    <mergeCell ref="A211:C211"/>
-    <mergeCell ref="A209:C209"/>
-    <mergeCell ref="A207:C207"/>
-    <mergeCell ref="A205:C205"/>
-    <mergeCell ref="A203:C203"/>
-    <mergeCell ref="A181:C181"/>
-    <mergeCell ref="A179:C179"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A175:C175"/>
-    <mergeCell ref="A173:C173"/>
-    <mergeCell ref="A191:C191"/>
-    <mergeCell ref="A189:C189"/>
-    <mergeCell ref="A187:C187"/>
-    <mergeCell ref="A185:C185"/>
-    <mergeCell ref="A183:C183"/>
-    <mergeCell ref="A161:C161"/>
-    <mergeCell ref="A159:C159"/>
-    <mergeCell ref="A157:C157"/>
-    <mergeCell ref="A155:C155"/>
-    <mergeCell ref="A153:C153"/>
-    <mergeCell ref="A171:C171"/>
-    <mergeCell ref="A169:C169"/>
-    <mergeCell ref="A167:C167"/>
-    <mergeCell ref="A165:C165"/>
-    <mergeCell ref="A163:C163"/>
-    <mergeCell ref="A141:C141"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A137:C137"/>
-    <mergeCell ref="A135:C135"/>
-    <mergeCell ref="A133:C133"/>
-    <mergeCell ref="A151:C151"/>
-    <mergeCell ref="A149:C149"/>
-    <mergeCell ref="A147:C147"/>
-    <mergeCell ref="A145:C145"/>
-    <mergeCell ref="A143:C143"/>
-    <mergeCell ref="A121:C121"/>
-    <mergeCell ref="A119:C119"/>
-    <mergeCell ref="A117:C117"/>
-    <mergeCell ref="A115:C115"/>
-    <mergeCell ref="A113:C113"/>
-    <mergeCell ref="A131:C131"/>
-    <mergeCell ref="A129:C129"/>
-    <mergeCell ref="A127:C127"/>
-    <mergeCell ref="A125:C125"/>
-    <mergeCell ref="A123:C123"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="A111:C111"/>
-    <mergeCell ref="A109:C109"/>
-    <mergeCell ref="A107:C107"/>
-    <mergeCell ref="A105:C105"/>
-    <mergeCell ref="A103:C103"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A83:C83"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A23:C23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8412,22 +8425,22 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="16384" width="47.140625" style="65"/>
+    <col min="1" max="16384" width="47.140625" style="56"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="13.5" thickBot="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="60" t="s">
         <v>456</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="59" t="s">
         <v>138</v>
       </c>
     </row>
@@ -8438,7 +8451,7 @@
       <c r="B2" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="71" t="s">
         <v>460</v>
       </c>
     </row>
@@ -8449,7 +8462,7 @@
       <c r="B3" s="21" t="s">
         <v>458</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="68" t="s">
         <v>461</v>
       </c>
     </row>
@@ -8457,10 +8470,10 @@
       <c r="A4" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="68" t="s">
         <v>459</v>
       </c>
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="68" t="s">
         <v>461</v>
       </c>
     </row>
@@ -8473,26 +8486,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1037AC48-D49A-412F-BE21-4BA1206866DE}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="53.5703125" style="65" customWidth="1"/>
-    <col min="2" max="2" width="34" style="65" customWidth="1"/>
-    <col min="3" max="3" width="39.7109375" style="65" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="65"/>
+    <col min="1" max="1" width="53.5703125" style="56" customWidth="1"/>
+    <col min="2" max="2" width="34" style="56" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" style="56" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="56"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="13.5" thickBot="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="70" t="s">
         <v>138</v>
       </c>
     </row>
@@ -8594,25 +8607,25 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" style="65" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" style="65" customWidth="1"/>
-    <col min="3" max="3" width="45.28515625" style="65" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="65"/>
+    <col min="1" max="1" width="50.7109375" style="56" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" style="56" customWidth="1"/>
+    <col min="3" max="3" width="45.28515625" style="56" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="56"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="13.5" thickBot="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="59" t="s">
         <v>138</v>
       </c>
     </row>
@@ -8664,7 +8677,7 @@
       <c r="A6" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="68" t="s">
         <v>202</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -8675,7 +8688,7 @@
       <c r="A7" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="69" t="s">
         <v>214</v>
       </c>
       <c r="C7" s="11"/>
@@ -8684,7 +8697,7 @@
       <c r="A8" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="69" t="s">
         <v>282</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -8700,26 +8713,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780F8E25-4925-4333-8124-194E792C6B07}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" style="65" customWidth="1"/>
-    <col min="2" max="2" width="37.28515625" style="65" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" style="65" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="65"/>
+    <col min="1" max="1" width="32.7109375" style="56" customWidth="1"/>
+    <col min="2" max="2" width="37.28515625" style="56" customWidth="1"/>
+    <col min="3" max="3" width="43.7109375" style="56" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="56"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="25.5">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="66" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="67" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="66" t="s">
         <v>138</v>
       </c>
     </row>
@@ -8826,10 +8839,10 @@
       <c r="A11" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="68" t="s">
         <v>202</v>
       </c>
-      <c r="C11" s="77" t="s">
+      <c r="C11" s="68" t="s">
         <v>195</v>
       </c>
     </row>
@@ -8928,26 +8941,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF0DAF8-2017-4C09-B357-9E8D921059AD}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="A2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" style="65" customWidth="1"/>
-    <col min="2" max="2" width="34.140625" style="65" customWidth="1"/>
-    <col min="3" max="3" width="58.5703125" style="65" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="65"/>
+    <col min="1" max="1" width="33.7109375" style="56" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" style="56" customWidth="1"/>
+    <col min="3" max="3" width="58.5703125" style="56" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="56"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" thickBot="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="59" t="s">
         <v>138</v>
       </c>
     </row>
@@ -9039,45 +9052,43 @@
         <v>361</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="90" thickBot="1">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:3" ht="89.25">
+      <c r="A10" s="19" t="s">
         <v>349</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="19" t="s">
         <v>356</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="19" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="89.25">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="36" t="s">
         <v>357</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="36" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="64.5" customHeight="1">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="82" t="s">
         <v>351</v>
       </c>
-      <c r="B12" s="36" t="s">
-        <v>358</v>
-      </c>
-      <c r="C12" s="36" t="s">
+      <c r="B12" s="82" t="s">
+        <v>505</v>
+      </c>
+      <c r="C12" s="82" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="90" thickBot="1">
-      <c r="A13" s="27"/>
-      <c r="B13" s="23" t="s">
-        <v>366</v>
-      </c>
-      <c r="C13" s="27"/>
+    <row r="13" spans="1:3" ht="81" customHeight="1">
+      <c r="A13" s="81"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="81"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9088,26 +9099,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F25FF38-6DD6-4ADA-9F5F-D17AE7FBFB48}">
   <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="38.7109375" style="65" customWidth="1"/>
-    <col min="2" max="2" width="83.28515625" style="65" customWidth="1"/>
-    <col min="3" max="3" width="67.140625" style="65" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="65"/>
+    <col min="1" max="1" width="38.7109375" style="56" customWidth="1"/>
+    <col min="2" max="2" width="83.28515625" style="56" customWidth="1"/>
+    <col min="3" max="3" width="67.140625" style="56" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="56"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="54" t="s">
         <v>502</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="55" t="s">
         <v>503</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="54" t="s">
         <v>504</v>
       </c>
     </row>
@@ -9188,7 +9199,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="66" customFormat="1" ht="182.25" customHeight="1">
+    <row r="9" spans="1:3" s="57" customFormat="1" ht="182.25" customHeight="1">
       <c r="A9" s="36" t="s">
         <v>145</v>
       </c>
@@ -9568,7 +9579,7 @@
       <c r="C43" s="36" t="s">
         <v>474</v>
       </c>
-      <c r="D43" s="67"/>
+      <c r="D43" s="58"/>
     </row>
     <row r="44" spans="1:5" ht="89.25">
       <c r="A44" s="35" t="s">
@@ -9926,90 +9937,1279 @@
         <v>331</v>
       </c>
     </row>
-    <row r="76" spans="1:3" s="67" customFormat="1" ht="38.25">
-      <c r="A76" s="73" t="s">
+    <row r="76" spans="1:3" s="58" customFormat="1" ht="38.25">
+      <c r="A76" s="64" t="s">
         <v>328</v>
       </c>
-      <c r="B76" s="74" t="s">
+      <c r="B76" s="65" t="s">
         <v>330</v>
       </c>
-      <c r="C76" s="74" t="s">
+      <c r="C76" s="65" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="77" spans="1:3" s="67" customFormat="1" ht="15" customHeight="1"/>
-    <row r="78" spans="1:3" s="67" customFormat="1" ht="21.75">
-      <c r="A78" s="72"/>
-      <c r="B78" s="72"/>
-      <c r="C78" s="72"/>
-    </row>
-    <row r="79" spans="1:3" s="67" customFormat="1"/>
-    <row r="80" spans="1:3" s="67" customFormat="1">
-      <c r="A80" s="70"/>
-      <c r="B80" s="71"/>
-      <c r="C80" s="70"/>
-    </row>
-    <row r="81" spans="1:3" s="67" customFormat="1">
+    <row r="77" spans="1:3" s="58" customFormat="1" ht="15" customHeight="1"/>
+    <row r="78" spans="1:3" s="58" customFormat="1" ht="21.75">
+      <c r="A78" s="63"/>
+      <c r="B78" s="63"/>
+      <c r="C78" s="63"/>
+    </row>
+    <row r="79" spans="1:3" s="58" customFormat="1"/>
+    <row r="80" spans="1:3" s="58" customFormat="1">
+      <c r="A80" s="61"/>
+      <c r="B80" s="62"/>
+      <c r="C80" s="61"/>
+    </row>
+    <row r="81" spans="1:3" s="58" customFormat="1">
       <c r="A81" s="33"/>
       <c r="B81" s="33"/>
       <c r="C81" s="33"/>
     </row>
-    <row r="82" spans="1:3" s="67" customFormat="1">
+    <row r="82" spans="1:3" s="58" customFormat="1">
       <c r="A82" s="46"/>
       <c r="B82" s="33"/>
       <c r="C82" s="33"/>
     </row>
-    <row r="83" spans="1:3" s="67" customFormat="1" ht="8.25" customHeight="1">
+    <row r="83" spans="1:3" s="58" customFormat="1" ht="8.25" customHeight="1">
       <c r="A83" s="33"/>
       <c r="B83" s="33"/>
       <c r="C83" s="33"/>
     </row>
-    <row r="84" spans="1:3" s="67" customFormat="1" ht="39" customHeight="1">
+    <row r="84" spans="1:3" s="58" customFormat="1" ht="39" customHeight="1">
       <c r="A84" s="46"/>
       <c r="B84" s="33"/>
       <c r="C84" s="33"/>
     </row>
-    <row r="85" spans="1:3" s="67" customFormat="1">
+    <row r="85" spans="1:3" s="58" customFormat="1">
       <c r="A85" s="46"/>
       <c r="B85" s="33"/>
       <c r="C85" s="33"/>
     </row>
-    <row r="86" spans="1:3" s="67" customFormat="1">
+    <row r="86" spans="1:3" s="58" customFormat="1">
       <c r="A86" s="33"/>
       <c r="B86" s="33"/>
       <c r="C86" s="33"/>
     </row>
-    <row r="87" spans="1:3" s="67" customFormat="1">
+    <row r="87" spans="1:3" s="58" customFormat="1">
       <c r="A87" s="46"/>
       <c r="B87" s="33"/>
       <c r="C87" s="33"/>
     </row>
-    <row r="88" spans="1:3" s="67" customFormat="1">
+    <row r="88" spans="1:3" s="58" customFormat="1">
       <c r="A88" s="33"/>
       <c r="B88" s="33"/>
       <c r="C88" s="33"/>
     </row>
-    <row r="89" spans="1:3" s="67" customFormat="1">
+    <row r="89" spans="1:3" s="58" customFormat="1">
       <c r="A89" s="33"/>
       <c r="B89" s="33"/>
       <c r="C89" s="33"/>
     </row>
-    <row r="90" spans="1:3" s="67" customFormat="1">
+    <row r="90" spans="1:3" s="58" customFormat="1">
       <c r="A90" s="33"/>
       <c r="B90" s="33"/>
       <c r="C90" s="33"/>
     </row>
-    <row r="91" spans="1:3" s="67" customFormat="1" ht="64.5" customHeight="1">
+    <row r="91" spans="1:3" s="58" customFormat="1" ht="64.5" customHeight="1">
       <c r="A91" s="33"/>
       <c r="B91" s="33"/>
       <c r="C91" s="33"/>
     </row>
-    <row r="92" spans="1:3" s="67" customFormat="1">
+    <row r="92" spans="1:3" s="58" customFormat="1">
       <c r="A92" s="34"/>
       <c r="B92" s="33"/>
       <c r="C92" s="34"/>
     </row>
-    <row r="93" spans="1:3" s="67" customFormat="1"/>
+    <row r="93" spans="1:3" s="58" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51523169-7780-4C20-86C7-0775ED580FA5}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:E106"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="38.7109375" style="56" customWidth="1"/>
+    <col min="2" max="2" width="83.28515625" style="56" customWidth="1"/>
+    <col min="3" max="3" width="67.140625" style="56" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="56"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="54" t="s">
+        <v>502</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>503</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="64.5" thickBot="1">
+      <c r="A2" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="115.5" thickBot="1">
+      <c r="A3" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="38.25">
+      <c r="A4" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="204.75" customHeight="1">
+      <c r="A5" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>486</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="39" thickBot="1">
+      <c r="A6" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="39" thickBot="1">
+      <c r="A7" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="51">
+      <c r="A8" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="57" customFormat="1" ht="182.25" customHeight="1">
+      <c r="A9" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>484</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="102.75" thickBot="1">
+      <c r="A10" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="38.25">
+      <c r="A11" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="153" customHeight="1">
+      <c r="A12" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="78.75" thickBot="1">
+      <c r="A13" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="78">
+      <c r="A14" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="243" customHeight="1">
+      <c r="A15" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="39" thickBot="1">
+      <c r="A16" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="27"/>
+    </row>
+    <row r="17" spans="1:3" ht="102">
+      <c r="A17" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="294" customHeight="1">
+      <c r="A18" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="78.75" thickBot="1">
+      <c r="A19" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="51">
+      <c r="A20" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="142.5" customHeight="1">
+      <c r="A21" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="90" thickBot="1">
+      <c r="A22" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="39" thickBot="1">
+      <c r="A23" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="38.25">
+      <c r="A24" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="192" customHeight="1">
+      <c r="A25" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="39" thickBot="1">
+      <c r="A26" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="39" thickBot="1">
+      <c r="A27" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="64.5" thickBot="1">
+      <c r="A28" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="63.75">
+      <c r="A29" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="77.25" customHeight="1">
+      <c r="A30" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="126" customHeight="1" thickBot="1">
+      <c r="A31" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="B31" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="C31" s="52"/>
+    </row>
+    <row r="32" spans="1:3" ht="114.75">
+      <c r="A32" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="216.75" customHeight="1">
+      <c r="A33" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="B33" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="77.25" thickBot="1">
+      <c r="A34" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="89.25">
+      <c r="A35" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="345" customHeight="1">
+      <c r="A36" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="B36" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="C36" s="36" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="281.25" customHeight="1">
+      <c r="A37" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="B37" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="C37" s="36" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="102.75" thickBot="1">
+      <c r="A38" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="38.25">
+      <c r="A39" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="192" customHeight="1">
+      <c r="A40" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="B40" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="C40" s="36" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="78.75" thickBot="1">
+      <c r="A41" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="38.25">
+      <c r="A42" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="383.25" customHeight="1">
+      <c r="A43" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="B43" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="C43" s="36" t="s">
+        <v>474</v>
+      </c>
+      <c r="D43" s="58"/>
+    </row>
+    <row r="44" spans="1:5" ht="89.25">
+      <c r="A44" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="B44" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="C44" s="36" t="s">
+        <v>475</v>
+      </c>
+      <c r="D44" s="33"/>
+      <c r="E44" s="46"/>
+    </row>
+    <row r="45" spans="1:5" ht="153" customHeight="1">
+      <c r="A45" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="B45" s="38" t="s">
+        <v>473</v>
+      </c>
+      <c r="C45" s="37" t="s">
+        <v>476</v>
+      </c>
+      <c r="D45" s="34"/>
+      <c r="E45" s="46"/>
+    </row>
+    <row r="46" spans="1:5" ht="104.25" thickBot="1">
+      <c r="A46" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="78.75" thickBot="1">
+      <c r="A47" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="51">
+      <c r="A48" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="166.5" customHeight="1">
+      <c r="A49" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="B49" s="36" t="s">
+        <v>471</v>
+      </c>
+      <c r="C49" s="36" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="40.5" thickBot="1">
+      <c r="A50" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="78">
+      <c r="A51" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="166.5" customHeight="1">
+      <c r="A52" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="B52" s="36" t="s">
+        <v>469</v>
+      </c>
+      <c r="C52" s="36" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="51.75" thickBot="1">
+      <c r="A53" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="51.75" thickBot="1">
+      <c r="A54" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="64.5" thickBot="1">
+      <c r="A55" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="38.25">
+      <c r="A56" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="217.5" customHeight="1">
+      <c r="A57" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="B57" s="36" t="s">
+        <v>467</v>
+      </c>
+      <c r="C57" s="36" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="104.25" thickBot="1">
+      <c r="A58" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="B58" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="38.25">
+      <c r="A59" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="77.25" customHeight="1">
+      <c r="A60" s="36" t="s">
+        <v>280</v>
+      </c>
+      <c r="B60" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="C60" s="36" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="63.75">
+      <c r="A61" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="B61" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="C61" s="29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="396" customHeight="1">
+      <c r="A62" s="35" t="s">
+        <v>288</v>
+      </c>
+      <c r="B62" s="36" t="s">
+        <v>290</v>
+      </c>
+      <c r="C62" s="36" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="39" thickBot="1">
+      <c r="A63" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="B63" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="C63" s="23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="102">
+      <c r="A64" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="217.5" customHeight="1">
+      <c r="A65" s="36" t="s">
+        <v>294</v>
+      </c>
+      <c r="B65" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="C65" s="36" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="40.5" thickBot="1">
+      <c r="A66" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="B66" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="38.25">
+      <c r="A67" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="B67" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="242.25" customHeight="1">
+      <c r="A68" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="B68" s="36" t="s">
+        <v>305</v>
+      </c>
+      <c r="C68" s="36" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="64.5" thickBot="1">
+      <c r="A69" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="B69" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="C69" s="23" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="51.75" thickBot="1">
+      <c r="A70" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="B70" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="102">
+      <c r="A71" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="B71" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="64.5" customHeight="1">
+      <c r="A72" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="B72" s="36" t="s">
+        <v>316</v>
+      </c>
+      <c r="C72" s="36" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="140.25">
+      <c r="A73" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="B73" s="29" t="s">
+        <v>323</v>
+      </c>
+      <c r="C73" s="29" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="204" customHeight="1">
+      <c r="A74" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="B74" s="36" t="s">
+        <v>324</v>
+      </c>
+      <c r="C74" s="36" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="90" thickBot="1">
+      <c r="A75" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="B75" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="C75" s="23" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" s="58" customFormat="1" ht="39" thickBot="1">
+      <c r="A76" s="64" t="s">
+        <v>328</v>
+      </c>
+      <c r="B76" s="65" t="s">
+        <v>330</v>
+      </c>
+      <c r="C76" s="65" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" s="58" customFormat="1" ht="37.5" customHeight="1" thickBot="1">
+      <c r="A77" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="B77" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" s="58" customFormat="1" ht="38.25">
+      <c r="A78" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="B78" s="36" t="s">
+        <v>341</v>
+      </c>
+      <c r="C78" s="36" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" s="58" customFormat="1" ht="39" thickBot="1">
+      <c r="A79" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="B79" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="C79" s="23" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" s="58" customFormat="1" ht="51.75" thickBot="1">
+      <c r="A80" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" s="58" customFormat="1" ht="39.75" customHeight="1" thickBot="1">
+      <c r="A81" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="B81" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" s="58" customFormat="1" ht="39" customHeight="1" thickBot="1">
+      <c r="A82" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="B82" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" s="58" customFormat="1" ht="38.25">
+      <c r="A83" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="B83" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="C83" s="19" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" s="58" customFormat="1" ht="38.25">
+      <c r="A84" s="36" t="s">
+        <v>350</v>
+      </c>
+      <c r="B84" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="C84" s="36" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" s="58" customFormat="1" ht="64.5" thickBot="1">
+      <c r="A85" s="82" t="s">
+        <v>351</v>
+      </c>
+      <c r="B85" s="82" t="s">
+        <v>505</v>
+      </c>
+      <c r="C85" s="82" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" s="58" customFormat="1" ht="39" thickBot="1">
+      <c r="A86" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="B86" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" s="58" customFormat="1" ht="64.5" customHeight="1" thickBot="1">
+      <c r="A87" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="B87" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="C87" s="21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" s="58" customFormat="1" ht="38.25">
+      <c r="A88" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="B88" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="C88" s="19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" s="58" customFormat="1" ht="38.25">
+      <c r="A89" s="35" t="s">
+        <v>372</v>
+      </c>
+      <c r="B89" s="36" t="s">
+        <v>378</v>
+      </c>
+      <c r="C89" s="36" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="39" thickBot="1">
+      <c r="A90" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="B90" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="C90" s="23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="39" thickBot="1">
+      <c r="A91" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="B91" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="39" thickBot="1">
+      <c r="A92" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="B92" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="C92" s="21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="67.5" customHeight="1">
+      <c r="A93" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="B93" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="C93" s="25"/>
+    </row>
+    <row r="94" spans="1:3" ht="77.25" thickBot="1">
+      <c r="A94" s="35" t="s">
+        <v>389</v>
+      </c>
+      <c r="B94" s="36" t="s">
+        <v>395</v>
+      </c>
+      <c r="C94" s="36" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="39" thickBot="1">
+      <c r="A95" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="B95" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="C95" s="21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="39" thickBot="1">
+      <c r="A96" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="B96" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="C96" s="21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="51">
+      <c r="A97" s="19" t="s">
+        <v>404</v>
+      </c>
+      <c r="B97" s="19" t="s">
+        <v>409</v>
+      </c>
+      <c r="C97" s="19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="38.25">
+      <c r="A98" s="36" t="s">
+        <v>405</v>
+      </c>
+      <c r="B98" s="36" t="s">
+        <v>410</v>
+      </c>
+      <c r="C98" s="36" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="51.75" thickBot="1">
+      <c r="A99" s="22" t="s">
+        <v>415</v>
+      </c>
+      <c r="B99" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="C99" s="23" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="39" thickBot="1">
+      <c r="A100" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="B100" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="39" thickBot="1">
+      <c r="A101" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="B101" s="69" t="s">
+        <v>282</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="39" thickBot="1">
+      <c r="A102" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="B102" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="39" thickBot="1">
+      <c r="A103" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="B103" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="39" thickBot="1">
+      <c r="A104" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="B104" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="C104" s="21" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="26.25" thickBot="1">
+      <c r="A105" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="B105" s="21" t="s">
+        <v>458</v>
+      </c>
+      <c r="C105" s="68" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="26.25" thickBot="1">
+      <c r="A106" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="B106" s="68" t="s">
+        <v>459</v>
+      </c>
+      <c r="C106" s="68" t="s">
+        <v>461</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
